--- a/pin.xlsx
+++ b/pin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yishan\Documents\university\2025su\100\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4531AB-6974-453F-BECC-8A3FB29B8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D0438-F028-4CEE-9442-2A631858374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{9EF7DEE4-36C8-46B2-BDBC-7BC51888495E}"/>
   </bookViews>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>fuction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +60,14 @@
   </si>
   <si>
     <t>motor2_dir_pin_2</t>
+  </si>
+  <si>
+    <t>gpio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9967EA-45DF-408D-81E5-E76EB0E80CDE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -438,60 +442,81 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>18</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
